--- a/AlphaInvestmentsSolution/Phase 1 Documentation/Alpha Investments Data Warehouse Objects Worksheet.xlsx
+++ b/AlphaInvestmentsSolution/Phase 1 Documentation/Alpha Investments Data Warehouse Objects Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrroy\OneDrive\Documents\GitHub\AlphaInvestments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f54441e3b915f25/Documents/GitHub/AlphaInvestments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{B2CB4322-096B-4BE1-BA20-9CAC90E9BD35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D975A6B2-AA41-44F3-8991-858EA526EF9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CB4322-096B-4BE1-BA20-9CAC90E9BD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6264" yWindow="3084" windowWidth="19656" windowHeight="11892" xr2:uid="{F6E2CFAB-2623-4DCB-885B-384F62B0F317}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="11400" windowHeight="7500" xr2:uid="{F6E2CFAB-2623-4DCB-885B-384F62B0F317}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
   <si>
     <t>Object Name</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Data Warehouse Objects Worksheet</t>
   </si>
   <si>
+    <t>Money</t>
+  </si>
+  <si>
     <t>Dimension Table</t>
   </si>
   <si>
@@ -333,39 +336,6 @@
   </si>
   <si>
     <t>MTG.dbo.SetRelease.SetReleaseDate</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>AlphaInvestments.dbo.FactSales.EventID</t>
-  </si>
-  <si>
-    <t>AlphaInvestments.dbo.FactSales.AgentID</t>
-  </si>
-  <si>
-    <t>MTG.dbo.AgentTransactions.EventID</t>
-  </si>
-  <si>
-    <t>MTG.dbo.AgentTransactions.AgentID</t>
-  </si>
-  <si>
-    <t>MTG.dbo.SalesTransactions.CustomerID</t>
-  </si>
-  <si>
-    <t>AlphaInvestments.dbo.FactSales.CustomerID</t>
-  </si>
-  <si>
-    <t>AlphaInvestments.dbo.FactSales.CardID</t>
-  </si>
-  <si>
-    <t>MTG.dbo.SalesTransactions.CardID</t>
-  </si>
-  <si>
-    <t>AlphaInvestments.dbo.FactSales.DateID</t>
-  </si>
-  <si>
-    <t>MTG.dbo.SalesTransactions.DateID</t>
   </si>
 </sst>
 </file>
@@ -780,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CED83DD-6DF3-419B-9B7C-A0025FA705BF}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -818,13 +788,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -835,13 +805,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -852,30 +822,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
@@ -886,30 +856,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
@@ -920,13 +890,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -936,31 +906,31 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>107</v>
+      <c r="A11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -970,116 +940,116 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>108</v>
+      <c r="A12" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
+      <c r="A13" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
+      <c r="A14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="A15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -1089,31 +1059,31 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>57</v>
+      <c r="A20" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
@@ -1123,14 +1093,14 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
-        <v>58</v>
+      <c r="A21" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -1140,167 +1110,167 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>59</v>
+      <c r="A22" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>60</v>
+      <c r="A23" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="A24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>19</v>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>12</v>
@@ -1311,211 +1281,211 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
+      <c r="A33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>30</v>
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>29</v>
+      <c r="A39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>31</v>
+      <c r="A40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>19</v>
+      <c r="A41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>25</v>
+      <c r="A42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
+      <c r="A43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>16</v>
@@ -1532,7 +1502,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>16</v>
@@ -1544,12 +1514,12 @@
         <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>16</v>
@@ -1561,12 +1531,12 @@
         <v>15</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>16</v>
@@ -1578,108 +1548,23 @@
         <v>15</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+      <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
